--- a/AAAGameData/Configs/GameConfig.xlsx
+++ b/AAAGameData/Configs/GameConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\GF_HybridCLR\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\GF_X\AAAGameData\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="GameConfig" localSheetId="0">Sheet1!$A$1:$D$8</definedName>
+    <definedName name="GameConfig" localSheetId="0">Sheet1!$A$1:$D$5</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>#</t>
   </si>
@@ -48,33 +48,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>AD_REWARD_MULTI</t>
-  </si>
-  <si>
-    <t>看广告领取多倍</t>
-  </si>
-  <si>
-    <t>DEFAULT_COINS</t>
-  </si>
-  <si>
-    <t>玩家初始金币数</t>
-  </si>
-  <si>
-    <t>AD2MONEY_BASE</t>
-  </si>
-  <si>
-    <t>看广告得金币基数</t>
-  </si>
-  <si>
-    <t>每看一个额外得金币数</t>
-  </si>
-  <si>
-    <t>AD2MONEY_LV_MAX</t>
-  </si>
-  <si>
-    <t>看广告得金币最高等级</t>
   </si>
   <si>
     <t>APPSTORE</t>
@@ -90,7 +63,17 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AD2MONEY_EXT</t>
+    <t>DefaultCoins</t>
+  </si>
+  <si>
+    <t>DefaultDiamonds</t>
+  </si>
+  <si>
+    <t>玩家初始金币数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家初始金币数</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -471,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD31"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -498,7 +481,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -509,74 +492,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/AAAGameData/Configs/GameConfig.xlsx
+++ b/AAAGameData/Configs/GameConfig.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OpenSource\GF_X\AAAGameData\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\OpenSource\GF_X\AAAGameData\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410A1752-D60B-406D-9E65-C4B088B14C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="25860" windowHeight="14685"/>
+    <workbookView xWindow="1005" yWindow="6165" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +25,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="GameConfig" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="GameConfig" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="C:\Workspace\UnityProjects\Gold Digger\DataTables\GameConfig.txt">
       <textFields>
         <textField/>
@@ -80,7 +81,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,13 +165,13 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="GameConfig" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="GameConfig" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -208,9 +209,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,7 +246,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -280,7 +281,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,11 +454,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -526,7 +527,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -534,7 +535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -547,7 +548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
